--- a/Code/Results/Cases/Case_9_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.51738283229334</v>
+        <v>13.30165497120454</v>
       </c>
       <c r="C2">
-        <v>8.634812647439109</v>
+        <v>9.54534550781827</v>
       </c>
       <c r="D2">
-        <v>4.825788172147501</v>
+        <v>4.818823637252405</v>
       </c>
       <c r="E2">
-        <v>28.05141644928339</v>
+        <v>28.10835564020342</v>
       </c>
       <c r="F2">
-        <v>28.39756404467161</v>
+        <v>25.54654733607158</v>
       </c>
       <c r="G2">
-        <v>40.90496097420728</v>
+        <v>35.4633211442032</v>
       </c>
       <c r="H2">
-        <v>2.326917256788014</v>
+        <v>2.373805558390461</v>
       </c>
       <c r="I2">
-        <v>3.090347922392595</v>
+        <v>2.929343870589354</v>
       </c>
       <c r="J2">
-        <v>12.87024837176364</v>
+        <v>12.07897018158288</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.18082715193888</v>
       </c>
       <c r="M2">
-        <v>12.2136449231531</v>
+        <v>12.41036958225984</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.5021568546836</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.63030293799849</v>
+        <v>12.46505396885915</v>
       </c>
       <c r="C3">
-        <v>8.183484575212045</v>
+        <v>8.920941906458209</v>
       </c>
       <c r="D3">
-        <v>4.785964899778883</v>
+        <v>4.744995004532549</v>
       </c>
       <c r="E3">
-        <v>26.15386904271516</v>
+        <v>26.2257365040361</v>
       </c>
       <c r="F3">
-        <v>27.39153332219699</v>
+        <v>24.83730805498504</v>
       </c>
       <c r="G3">
-        <v>39.30947951915796</v>
+        <v>34.43031914429547</v>
       </c>
       <c r="H3">
-        <v>2.065281598418538</v>
+        <v>2.12495154519514</v>
       </c>
       <c r="I3">
-        <v>3.304456207340186</v>
+        <v>3.111580326667793</v>
       </c>
       <c r="J3">
-        <v>12.63776995016612</v>
+        <v>11.91901552889148</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.1857358571071</v>
       </c>
       <c r="M3">
-        <v>11.49760581216835</v>
+        <v>12.16259468656067</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.76421537375912</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.05238132981561</v>
+        <v>11.92027037286869</v>
       </c>
       <c r="C4">
-        <v>7.898018363321182</v>
+        <v>8.522482843196046</v>
       </c>
       <c r="D4">
-        <v>4.759751259927027</v>
+        <v>4.69836176608306</v>
       </c>
       <c r="E4">
-        <v>24.92191579049983</v>
+        <v>25.00307213038422</v>
       </c>
       <c r="F4">
-        <v>26.75785794794166</v>
+        <v>24.39211016440187</v>
       </c>
       <c r="G4">
-        <v>38.29743888689035</v>
+        <v>33.7810078060811</v>
       </c>
       <c r="H4">
-        <v>1.89926558623626</v>
+        <v>1.96692167183291</v>
       </c>
       <c r="I4">
-        <v>3.440763753277577</v>
+        <v>3.228021516597301</v>
       </c>
       <c r="J4">
-        <v>12.49357471219262</v>
+        <v>11.81808811564628</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.18257518260704</v>
       </c>
       <c r="M4">
-        <v>11.03570185684211</v>
+        <v>12.02416616081359</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.28799594337356</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.80541873528631</v>
+        <v>11.68778311354056</v>
       </c>
       <c r="C5">
-        <v>7.789616792307719</v>
+        <v>8.366749378920883</v>
       </c>
       <c r="D5">
-        <v>4.748827714060031</v>
+        <v>4.679984678564253</v>
       </c>
       <c r="E5">
-        <v>24.40268036086107</v>
+        <v>24.48770880211441</v>
       </c>
       <c r="F5">
-        <v>26.47305585702846</v>
+        <v>24.18906767306838</v>
       </c>
       <c r="G5">
-        <v>37.83620098366799</v>
+        <v>33.47802410040729</v>
       </c>
       <c r="H5">
-        <v>1.829987793315928</v>
+        <v>1.900975522013905</v>
       </c>
       <c r="I5">
-        <v>3.500397304844252</v>
+        <v>3.279911711889658</v>
       </c>
       <c r="J5">
-        <v>12.42643311029055</v>
+        <v>11.76962848219493</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.16738589903628</v>
       </c>
       <c r="M5">
-        <v>10.84409297081928</v>
+        <v>11.96124410278196</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.09010408923174</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.76016243714948</v>
+        <v>11.64546186229668</v>
       </c>
       <c r="C6">
-        <v>7.783747375482116</v>
+        <v>8.353378619474979</v>
       </c>
       <c r="D6">
-        <v>4.7472519925129</v>
+        <v>4.678091941148601</v>
       </c>
       <c r="E6">
-        <v>24.31508318540318</v>
+        <v>24.40080396789818</v>
       </c>
       <c r="F6">
-        <v>26.39759567668594</v>
+        <v>24.13158675296931</v>
       </c>
       <c r="G6">
-        <v>37.70886428544825</v>
+        <v>33.38497420464378</v>
       </c>
       <c r="H6">
-        <v>1.818099431432691</v>
+        <v>1.889690457397323</v>
       </c>
       <c r="I6">
-        <v>3.51402023673816</v>
+        <v>3.292820149150217</v>
       </c>
       <c r="J6">
-        <v>12.40542077784874</v>
+        <v>11.75339537956331</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.14971330460952</v>
       </c>
       <c r="M6">
-        <v>10.81460410751728</v>
+        <v>11.938643442309</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.05925659490389</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.03910572451457</v>
+        <v>11.90916127420067</v>
       </c>
       <c r="C7">
-        <v>7.929433571020391</v>
+        <v>8.549503229116773</v>
       </c>
       <c r="D7">
-        <v>4.760364932411775</v>
+        <v>4.703413357375337</v>
       </c>
       <c r="E7">
-        <v>24.91402289814745</v>
+        <v>24.9948028442435</v>
       </c>
       <c r="F7">
-        <v>26.67861599129954</v>
+        <v>24.28955845997127</v>
       </c>
       <c r="G7">
-        <v>38.15570979710699</v>
+        <v>33.71382252518448</v>
       </c>
       <c r="H7">
-        <v>1.897524798632157</v>
+        <v>1.964898434082396</v>
       </c>
       <c r="I7">
-        <v>3.451256596388575</v>
+        <v>3.240648782747807</v>
       </c>
       <c r="J7">
-        <v>12.46595940912023</v>
+        <v>11.73896634695414</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.12381035304348</v>
       </c>
       <c r="M7">
-        <v>11.04026867014723</v>
+        <v>11.97350940725021</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.29028765271134</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.20617707138306</v>
+        <v>13.01105594949501</v>
       </c>
       <c r="C8">
-        <v>8.521936354730252</v>
+        <v>9.36010048799826</v>
       </c>
       <c r="D8">
-        <v>4.813639633231074</v>
+        <v>4.805511538343973</v>
       </c>
       <c r="E8">
-        <v>27.40971591481784</v>
+        <v>27.4702468449982</v>
       </c>
       <c r="F8">
-        <v>27.95870083566496</v>
+        <v>25.10849935183214</v>
       </c>
       <c r="G8">
-        <v>40.19091684481344</v>
+        <v>35.13190898833827</v>
       </c>
       <c r="H8">
-        <v>2.236769635375599</v>
+        <v>2.286799875711778</v>
       </c>
       <c r="I8">
-        <v>3.175725917071798</v>
+        <v>3.007981146078328</v>
       </c>
       <c r="J8">
-        <v>12.75593726322557</v>
+        <v>11.81361089571819</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.07737962612182</v>
       </c>
       <c r="M8">
-        <v>11.98022242291673</v>
+        <v>12.22243649971275</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.25615730571498</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.24865282945106</v>
+        <v>14.93719916657854</v>
       </c>
       <c r="C9">
-        <v>9.562663674378731</v>
+        <v>10.79162112436134</v>
       </c>
       <c r="D9">
-        <v>4.902399299845603</v>
+        <v>4.981189804489524</v>
       </c>
       <c r="E9">
-        <v>31.77987086811474</v>
+        <v>31.80264413776725</v>
       </c>
       <c r="F9">
-        <v>30.45778981879399</v>
+        <v>26.87217373202268</v>
       </c>
       <c r="G9">
-        <v>44.13470530971777</v>
+        <v>37.78785202998115</v>
       </c>
       <c r="H9">
-        <v>2.862107045611825</v>
+        <v>2.880468854752936</v>
       </c>
       <c r="I9">
-        <v>2.65692662908075</v>
+        <v>2.566069235820353</v>
       </c>
       <c r="J9">
-        <v>13.35778439283369</v>
+        <v>12.18040541252236</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.07017330289333</v>
       </c>
       <c r="M9">
-        <v>13.63425447217726</v>
+        <v>12.93352999816256</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.95981522598441</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.58387471960899</v>
+        <v>16.20578199492897</v>
       </c>
       <c r="C10">
-        <v>10.28587973634919</v>
+        <v>11.72381295135773</v>
       </c>
       <c r="D10">
-        <v>4.971145401507431</v>
+        <v>5.144602840946538</v>
       </c>
       <c r="E10">
-        <v>33.79572477373466</v>
+        <v>33.78870734226702</v>
       </c>
       <c r="F10">
-        <v>31.85481203333258</v>
+        <v>27.657277587013</v>
       </c>
       <c r="G10">
-        <v>46.23883486498178</v>
+        <v>39.42610033188126</v>
       </c>
       <c r="H10">
-        <v>3.261566768528082</v>
+        <v>3.256026136273151</v>
       </c>
       <c r="I10">
-        <v>2.649992120301015</v>
+        <v>2.692995857569264</v>
       </c>
       <c r="J10">
-        <v>13.66243715029234</v>
+        <v>12.04226871590811</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.81905736157563</v>
       </c>
       <c r="M10">
-        <v>14.73637196302569</v>
+        <v>13.26764128624295</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.08231569679326</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.11201276286804</v>
+        <v>16.77010864474095</v>
       </c>
       <c r="C11">
-        <v>10.5409524258714</v>
+        <v>11.82810161622134</v>
       </c>
       <c r="D11">
-        <v>5.164197376872413</v>
+        <v>5.51176376837882</v>
       </c>
       <c r="E11">
-        <v>27.14735735300023</v>
+        <v>27.13347202073778</v>
       </c>
       <c r="F11">
-        <v>29.71558678561582</v>
+        <v>25.49067816935915</v>
       </c>
       <c r="G11">
-        <v>42.27015288068917</v>
+        <v>36.63998133229433</v>
       </c>
       <c r="H11">
-        <v>3.744349372714897</v>
+        <v>3.735391452142293</v>
       </c>
       <c r="I11">
-        <v>2.725237606662965</v>
+        <v>2.757658599541771</v>
       </c>
       <c r="J11">
-        <v>12.7736445851807</v>
+        <v>10.7638860889507</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.55836207070542</v>
       </c>
       <c r="M11">
-        <v>15.16619565677342</v>
+        <v>12.11617371275305</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.47107820755476</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.30234547137875</v>
+        <v>17.00110104110051</v>
       </c>
       <c r="C12">
-        <v>10.57845679577319</v>
+        <v>11.70426427334641</v>
       </c>
       <c r="D12">
-        <v>5.379587520561933</v>
+        <v>5.816785087581456</v>
       </c>
       <c r="E12">
-        <v>21.101547962968</v>
+        <v>21.08802606891897</v>
       </c>
       <c r="F12">
-        <v>27.70504405158433</v>
+        <v>23.68251169662843</v>
       </c>
       <c r="G12">
-        <v>38.64052535638911</v>
+        <v>33.90552721090102</v>
       </c>
       <c r="H12">
-        <v>4.70968251203072</v>
+        <v>4.703382913156775</v>
       </c>
       <c r="I12">
-        <v>2.722619865583261</v>
+        <v>2.755144296559351</v>
       </c>
       <c r="J12">
-        <v>12.00403266293577</v>
+        <v>9.982565102700574</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.70502986353156</v>
       </c>
       <c r="M12">
-        <v>15.30201431631122</v>
+        <v>11.19367021197829</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.5712446836575</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.23949061365873</v>
+        <v>16.98575152684823</v>
       </c>
       <c r="C13">
-        <v>10.49283391208063</v>
+        <v>11.44500234622534</v>
       </c>
       <c r="D13">
-        <v>5.615505195790463</v>
+        <v>6.069413224575674</v>
       </c>
       <c r="E13">
-        <v>14.97507553164876</v>
+        <v>14.96910483023523</v>
       </c>
       <c r="F13">
-        <v>25.53156643133612</v>
+        <v>21.99561406038841</v>
       </c>
       <c r="G13">
-        <v>34.80016143331763</v>
+        <v>30.72244191946309</v>
       </c>
       <c r="H13">
-        <v>5.857277610746873</v>
+        <v>5.855386411221419</v>
       </c>
       <c r="I13">
-        <v>2.664873276563202</v>
+        <v>2.708450147160187</v>
       </c>
       <c r="J13">
-        <v>11.23784918316238</v>
+        <v>9.556160774219345</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.065950797256</v>
       </c>
       <c r="M13">
-        <v>15.23286650153807</v>
+        <v>10.37483572501588</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.46887047864998</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.07864639957332</v>
+        <v>16.86200472459633</v>
       </c>
       <c r="C14">
-        <v>10.38635287994378</v>
+        <v>11.20820902805136</v>
       </c>
       <c r="D14">
-        <v>5.794719722827133</v>
+        <v>6.222925680600108</v>
       </c>
       <c r="E14">
-        <v>10.60825445301211</v>
+        <v>10.61268950177286</v>
       </c>
       <c r="F14">
-        <v>23.90519980469897</v>
+        <v>20.83942435254448</v>
       </c>
       <c r="G14">
-        <v>31.96229984050647</v>
+        <v>28.25700737978682</v>
       </c>
       <c r="H14">
-        <v>6.725643458194178</v>
+        <v>6.726640801755897</v>
       </c>
       <c r="I14">
-        <v>2.601998169777541</v>
+        <v>2.65829521727807</v>
       </c>
       <c r="J14">
-        <v>10.70106437907043</v>
+        <v>9.384239013212968</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.7004552250701</v>
       </c>
       <c r="M14">
-        <v>15.09365761086927</v>
+        <v>9.845361946595922</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.30653358288643</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.9811836843869</v>
+        <v>16.77570509274025</v>
       </c>
       <c r="C15">
-        <v>10.34339969343962</v>
+        <v>11.12961522153258</v>
       </c>
       <c r="D15">
-        <v>5.837117068111723</v>
+        <v>6.246758023597625</v>
       </c>
       <c r="E15">
-        <v>9.519553958651636</v>
+        <v>9.529507609306467</v>
       </c>
       <c r="F15">
-        <v>23.44929107095352</v>
+        <v>20.55562206536333</v>
       </c>
       <c r="G15">
-        <v>31.1814207906772</v>
+        <v>27.53706472480724</v>
       </c>
       <c r="H15">
-        <v>6.924535215944909</v>
+        <v>6.926554778584397</v>
       </c>
       <c r="I15">
-        <v>2.575462075637134</v>
+        <v>2.637877390983951</v>
       </c>
       <c r="J15">
-        <v>10.56279470646164</v>
+        <v>9.38745922955731</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.6322317418007</v>
       </c>
       <c r="M15">
-        <v>15.01693982778628</v>
+        <v>9.723982447998591</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.224295264661</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.44213674847265</v>
+        <v>16.25318617969136</v>
       </c>
       <c r="C16">
-        <v>10.07708400774041</v>
+        <v>10.83359538998092</v>
       </c>
       <c r="D16">
-        <v>5.756210399887945</v>
+        <v>6.075192629042546</v>
       </c>
       <c r="E16">
-        <v>9.383133464964805</v>
+        <v>9.414552111229488</v>
       </c>
       <c r="F16">
-        <v>23.15695490614751</v>
+        <v>20.71357289965441</v>
       </c>
       <c r="G16">
-        <v>30.8095426194522</v>
+        <v>26.89220623481661</v>
       </c>
       <c r="H16">
-        <v>6.646391363799433</v>
+        <v>6.652695758874064</v>
       </c>
       <c r="I16">
-        <v>2.569316572036874</v>
+        <v>2.533597999307306</v>
       </c>
       <c r="J16">
-        <v>10.56290288675605</v>
+        <v>9.832173158058238</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.87862621719069</v>
       </c>
       <c r="M16">
-        <v>14.58028243074181</v>
+        <v>9.864753816939613</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.79192460843909</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.10801033670242</v>
+        <v>15.91237336544109</v>
       </c>
       <c r="C17">
-        <v>9.928064853781047</v>
+        <v>10.72844261056829</v>
       </c>
       <c r="D17">
-        <v>5.593905526044552</v>
+        <v>5.87074192962154</v>
       </c>
       <c r="E17">
-        <v>11.71167092716399</v>
+        <v>11.74765805399015</v>
       </c>
       <c r="F17">
-        <v>23.81816563886236</v>
+        <v>21.42390919801967</v>
       </c>
       <c r="G17">
-        <v>32.06849348309761</v>
+        <v>27.79781228737133</v>
       </c>
       <c r="H17">
-        <v>5.918818597576803</v>
+        <v>5.927846795794808</v>
       </c>
       <c r="I17">
-        <v>2.641590841500983</v>
+        <v>2.559414407768972</v>
       </c>
       <c r="J17">
-        <v>10.84650156978486</v>
+        <v>10.24258913760084</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.26588675899772</v>
       </c>
       <c r="M17">
-        <v>14.31529670200103</v>
+        <v>10.22801638955962</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.54176454627994</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.92870103983662</v>
+        <v>15.70295600599527</v>
       </c>
       <c r="C18">
-        <v>9.846691986048942</v>
+        <v>10.76825921375098</v>
       </c>
       <c r="D18">
-        <v>5.361931229322014</v>
+        <v>5.612134888696129</v>
       </c>
       <c r="E18">
-        <v>16.5453100712002</v>
+        <v>16.57653442973072</v>
       </c>
       <c r="F18">
-        <v>25.43579572945382</v>
+        <v>22.80557849009987</v>
       </c>
       <c r="G18">
-        <v>34.98937100540282</v>
+        <v>30.12651309947962</v>
       </c>
       <c r="H18">
-        <v>4.785698463686203</v>
+        <v>4.797221768070282</v>
       </c>
       <c r="I18">
-        <v>2.648929227906662</v>
+        <v>2.563005219332883</v>
       </c>
       <c r="J18">
-        <v>11.43642764325378</v>
+        <v>10.77574545800223</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.8983200633325</v>
       </c>
       <c r="M18">
-        <v>14.17147798367938</v>
+        <v>10.89218434120455</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.42591553055647</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.87819902691499</v>
+        <v>15.60711985255155</v>
       </c>
       <c r="C19">
-        <v>9.88992220827013</v>
+        <v>10.9839289070928</v>
       </c>
       <c r="D19">
-        <v>5.14532830037229</v>
+        <v>5.361614162058418</v>
       </c>
       <c r="E19">
-        <v>22.99372864105439</v>
+        <v>23.01726947066159</v>
       </c>
       <c r="F19">
-        <v>27.5850382837091</v>
+        <v>24.55171537074634</v>
       </c>
       <c r="G19">
-        <v>38.82814764045071</v>
+        <v>33.21397586770251</v>
       </c>
       <c r="H19">
-        <v>3.633571768942211</v>
+        <v>3.646942861846459</v>
       </c>
       <c r="I19">
-        <v>2.617856667548614</v>
+        <v>2.539989231879001</v>
       </c>
       <c r="J19">
-        <v>12.20546644538561</v>
+        <v>11.38360059811407</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.67262231177661</v>
       </c>
       <c r="M19">
-        <v>14.1541553920075</v>
+        <v>11.72854239071857</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.44339482415467</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.21931947437225</v>
+        <v>15.85999678371337</v>
       </c>
       <c r="C20">
-        <v>10.18244078257107</v>
+        <v>11.58046498402372</v>
       </c>
       <c r="D20">
-        <v>4.958752960565886</v>
+        <v>5.107140321445019</v>
       </c>
       <c r="E20">
-        <v>33.23580461219382</v>
+        <v>33.23891776746952</v>
       </c>
       <c r="F20">
-        <v>31.27933224001796</v>
+        <v>27.38300761321839</v>
       </c>
       <c r="G20">
-        <v>45.31620733262801</v>
+        <v>38.51162583535218</v>
       </c>
       <c r="H20">
-        <v>3.153241770003695</v>
+        <v>3.155714659619986</v>
       </c>
       <c r="I20">
-        <v>2.572007518494753</v>
+        <v>2.634841360902968</v>
       </c>
       <c r="J20">
-        <v>13.50220016378824</v>
+        <v>12.19752505207231</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.83219867516182</v>
       </c>
       <c r="M20">
-        <v>14.47179619941703</v>
+        <v>13.1194941589235</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.81436394633777</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.20813369342753</v>
+        <v>16.79798724935892</v>
       </c>
       <c r="C21">
-        <v>10.72324447449604</v>
+        <v>12.23756043668071</v>
       </c>
       <c r="D21">
-        <v>4.990152442416882</v>
+        <v>5.241431683495104</v>
       </c>
       <c r="E21">
-        <v>36.06068155073876</v>
+        <v>36.03021872479425</v>
       </c>
       <c r="F21">
-        <v>32.85046582663398</v>
+        <v>27.82657666597485</v>
       </c>
       <c r="G21">
-        <v>47.81615285532752</v>
+        <v>41.36830458540286</v>
       </c>
       <c r="H21">
-        <v>3.510933153046671</v>
+        <v>3.487068826751844</v>
       </c>
       <c r="I21">
-        <v>2.842904084846837</v>
+        <v>2.852860568673537</v>
       </c>
       <c r="J21">
-        <v>13.9298731559881</v>
+        <v>11.30761140640354</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.57490376497655</v>
       </c>
       <c r="M21">
-        <v>15.28962937067157</v>
+        <v>13.3069808590112</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.63445671441325</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.83363790314515</v>
+        <v>17.39436866053491</v>
       </c>
       <c r="C22">
-        <v>11.03038572854719</v>
+        <v>12.6011593099849</v>
       </c>
       <c r="D22">
-        <v>5.013278677514096</v>
+        <v>5.34209271634414</v>
       </c>
       <c r="E22">
-        <v>37.39686450648531</v>
+        <v>37.34449829569441</v>
       </c>
       <c r="F22">
-        <v>33.77499382068071</v>
+        <v>28.01309988238264</v>
       </c>
       <c r="G22">
-        <v>49.26599099751861</v>
+        <v>43.16305477311477</v>
       </c>
       <c r="H22">
-        <v>3.722730545268994</v>
+        <v>3.682115142477769</v>
       </c>
       <c r="I22">
-        <v>3.009368383838851</v>
+        <v>2.984381625967496</v>
       </c>
       <c r="J22">
-        <v>14.178068635932</v>
+        <v>10.67339118554386</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.36887943956004</v>
       </c>
       <c r="M22">
-        <v>15.79416252176301</v>
+        <v>13.39081708392902</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.13753659735288</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.51095535002626</v>
+        <v>17.08460849666876</v>
       </c>
       <c r="C23">
-        <v>10.83697538591984</v>
+        <v>12.3874156740957</v>
       </c>
       <c r="D23">
-        <v>4.999372676225073</v>
+        <v>5.274978962849531</v>
       </c>
       <c r="E23">
-        <v>36.68975310216941</v>
+        <v>36.6498630274069</v>
       </c>
       <c r="F23">
-        <v>33.35569827833937</v>
+        <v>28.05398891024363</v>
       </c>
       <c r="G23">
-        <v>48.62355390070467</v>
+        <v>42.19644595341895</v>
       </c>
       <c r="H23">
-        <v>3.610834533116988</v>
+        <v>3.579739838560854</v>
       </c>
       <c r="I23">
-        <v>2.916867931799862</v>
+        <v>2.909954246298398</v>
       </c>
       <c r="J23">
-        <v>14.07361977750627</v>
+        <v>11.15174690672626</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.55045581828361</v>
       </c>
       <c r="M23">
-        <v>15.52032812867567</v>
+        <v>13.42887652653274</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.86770300161225</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.22014345353201</v>
+        <v>15.85440976209933</v>
       </c>
       <c r="C24">
-        <v>10.13525396720992</v>
+        <v>11.54916422892495</v>
       </c>
       <c r="D24">
-        <v>4.946250303287037</v>
+        <v>5.078688133147542</v>
       </c>
       <c r="E24">
-        <v>33.90006585997013</v>
+        <v>33.90228777880125</v>
       </c>
       <c r="F24">
-        <v>31.617490082931</v>
+        <v>27.6675161902048</v>
       </c>
       <c r="G24">
-        <v>45.92205739482866</v>
+        <v>39.00521697307271</v>
       </c>
       <c r="H24">
-        <v>3.178603779020575</v>
+        <v>3.180370039946861</v>
       </c>
       <c r="I24">
-        <v>2.568255504886021</v>
+        <v>2.627747107878207</v>
       </c>
       <c r="J24">
-        <v>13.63115683575179</v>
+        <v>12.30818776967044</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.98597716101578</v>
       </c>
       <c r="M24">
-        <v>14.4534988232404</v>
+        <v>13.27905022015521</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.80047213685763</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.70878030519892</v>
+        <v>14.42844638865139</v>
       </c>
       <c r="C25">
-        <v>9.340242395989504</v>
+        <v>10.47595974319433</v>
       </c>
       <c r="D25">
-        <v>4.881992680939836</v>
+        <v>4.938640436273819</v>
       </c>
       <c r="E25">
-        <v>30.65152907456914</v>
+        <v>30.68558649972442</v>
       </c>
       <c r="F25">
-        <v>29.67556191352287</v>
+        <v>26.34740471978282</v>
       </c>
       <c r="G25">
-        <v>42.88123678009658</v>
+        <v>36.82959668649977</v>
       </c>
       <c r="H25">
-        <v>2.695820466663528</v>
+        <v>2.723486962926566</v>
       </c>
       <c r="I25">
-        <v>2.81199448347297</v>
+        <v>2.702603306186776</v>
       </c>
       <c r="J25">
-        <v>13.15119309367933</v>
+        <v>12.12272605420121</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.03737107974031</v>
       </c>
       <c r="M25">
-        <v>13.21694625041833</v>
+        <v>12.69012326507054</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.53041443468287</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
